--- a/progetto/Risultati/cplex_results.xlsx
+++ b/progetto/Risultati/cplex_results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>CPLEX</t>
   </si>
@@ -47,12 +47,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-    <numFmt numFmtId="166" formatCode="[H].MM.SS"/>
+    <numFmt numFmtId="165" formatCode="[H].MM.SS"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -82,17 +81,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -145,7 +134,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,7 +143,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,34 +235,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Tempi di esecuzione</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -305,14 +279,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -322,10 +288,130 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>nodi</c:f>
+              <c:f>Random!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -460,38 +546,16 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19558506"/>
-        <c:axId val="42165147"/>
+        <c:axId val="83543709"/>
+        <c:axId val="16637757"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19558506"/>
+        <c:axId val="83543709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>N° nodi</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -513,12 +577,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42165147"/>
+        <c:crossAx val="16637757"/>
         <c:crossesAt val="0"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42165147"/>
+        <c:axId val="16637757"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -536,29 +600,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900" spc="-1">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tempo di esecuzione</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0,00" sourceLinked="0"/>
+        <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -579,7 +621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19558506"/>
+        <c:crossAx val="83543709"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -619,16 +661,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>924120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>656280</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>286200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -636,8 +678,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5502960" y="207000"/>
-        <a:ext cx="7772040" cy="4548960"/>
+        <a:off x="9458280" y="482400"/>
+        <a:ext cx="5762880" cy="3242160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -657,13 +699,13 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="10" sqref="E2 E6 E10 E14 E18 E22 E26 E30 E34 E38 E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +731,9 @@
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,13 +746,16 @@
       <c r="C3" s="1" t="n">
         <v>330.405</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">AVERAGE(B3:B6)</f>
         <v>0.063475</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>0.0664</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -720,7 +767,11 @@
       <c r="C4" s="1" t="n">
         <v>284.322</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="n">
+        <v>0.0569</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -732,7 +783,11 @@
       <c r="C5" s="1" t="n">
         <v>297.305</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="1" t="n">
+        <v>0.0753</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -744,7 +799,11 @@
       <c r="C6" s="1" t="n">
         <v>330.608</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="1" t="n">
+        <v>0.0553</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -756,13 +815,16 @@
       <c r="C7" s="1" t="n">
         <v>368.77</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="3" t="n">
         <f aca="false">AVERAGE(B7:B10)</f>
         <v>0.32395</v>
       </c>
+      <c r="G7" s="1" t="n">
+        <v>0.1887</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -774,7 +836,11 @@
       <c r="C8" s="1" t="n">
         <v>397.501</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="1" t="n">
+        <v>0.2177</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -786,7 +852,11 @@
       <c r="C9" s="1" t="n">
         <v>392.092</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="1" t="n">
+        <v>0.3985</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -798,7 +868,11 @@
       <c r="C10" s="1" t="n">
         <v>350.8789</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="G10" s="1" t="n">
+        <v>0.4909</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -810,13 +884,16 @@
       <c r="C11" s="1" t="n">
         <v>463.787</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3" t="n">
         <f aca="false">AVERAGE(B11:B14)</f>
         <v>2.514275</v>
       </c>
+      <c r="G11" s="1" t="n">
+        <v>2.489</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -828,7 +905,11 @@
       <c r="C12" s="1" t="n">
         <v>450.216</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="1" t="n">
+        <v>2.2121</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -840,7 +921,11 @@
       <c r="C13" s="1" t="n">
         <v>494.013</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="1" t="n">
+        <v>2.124</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -852,7 +937,11 @@
       <c r="C14" s="1" t="n">
         <v>466.485</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="1" t="n">
+        <v>3.232</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -864,13 +953,16 @@
       <c r="C15" s="1" t="n">
         <v>551.326</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="3" t="n">
         <f aca="false">AVERAGE(B15:B18)</f>
         <v>6.94325</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <v>6.5621</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -882,7 +974,11 @@
       <c r="C16" s="1" t="n">
         <v>542.716</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="1" t="n">
+        <v>7.8856</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -894,7 +990,11 @@
       <c r="C17" s="1" t="n">
         <v>553.597</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="1" t="n">
+        <v>7.6358</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -906,7 +1006,11 @@
       <c r="C18" s="1" t="n">
         <v>563.193</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="1" t="n">
+        <v>5.6895</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -918,13 +1022,16 @@
       <c r="C19" s="1" t="n">
         <v>570.99</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="3" t="n">
         <f aca="false">AVERAGE(B19:B22)</f>
         <v>17.389725</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <v>31.9226</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -936,7 +1043,11 @@
       <c r="C20" s="1" t="n">
         <v>562.116</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="1" t="n">
+        <v>13.1385</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -948,7 +1059,11 @@
       <c r="C21" s="1" t="n">
         <v>547.048</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="G21" s="1" t="n">
+        <v>10.1169</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -960,7 +1075,11 @@
       <c r="C22" s="1" t="n">
         <v>558.227</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="G22" s="1" t="n">
+        <v>14.3809</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -972,13 +1091,16 @@
       <c r="C23" s="1" t="n">
         <v>627.037</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="3" t="n">
         <f aca="false">AVERAGE(B23:B26)</f>
         <v>19.98135</v>
       </c>
+      <c r="G23" s="1" t="n">
+        <v>18.234</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -990,7 +1112,11 @@
       <c r="C24" s="1" t="n">
         <v>596.215</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="1" t="n">
+        <v>19.2559</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1002,7 +1128,11 @@
       <c r="C25" s="1" t="n">
         <v>608.963</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="1" t="n">
+        <v>24.708</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1014,7 +1144,11 @@
       <c r="C26" s="1" t="n">
         <v>588.066</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="1" t="n">
+        <v>17.7275</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -1026,13 +1160,16 @@
       <c r="C27" s="1" t="n">
         <v>639.207</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="3" t="n">
         <f aca="false">AVERAGE(B27:B30)</f>
         <v>60.28625</v>
       </c>
+      <c r="G27" s="1" t="n">
+        <v>51.5994</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1044,7 +1181,11 @@
       <c r="C28" s="1" t="n">
         <v>676.871</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="1" t="n">
+        <v>69.3773</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1056,7 +1197,11 @@
       <c r="C29" s="1" t="n">
         <v>682.625</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="1" t="n">
+        <v>67.1507</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1068,7 +1213,11 @@
       <c r="C30" s="1" t="n">
         <v>656.5</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="1" t="n">
+        <v>53.0176</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1080,13 +1229,16 @@
       <c r="C31" s="1" t="n">
         <v>720.635</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="3" t="n">
         <f aca="false">AVERAGE(B31:B34)</f>
         <v>109.9184</v>
       </c>
+      <c r="G31" s="1" t="n">
+        <v>97.2737</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1098,7 +1250,11 @@
       <c r="C32" s="1" t="n">
         <v>672.432</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="G32" s="1" t="n">
+        <v>127.327</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1110,7 +1266,11 @@
       <c r="C33" s="1" t="n">
         <v>693.824</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="G33" s="1" t="n">
+        <v>59.9549</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -1122,7 +1282,11 @@
       <c r="C34" s="1" t="n">
         <v>705.53</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="G34" s="1" t="n">
+        <v>155.118</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1134,13 +1298,16 @@
       <c r="C35" s="1" t="n">
         <v>688.27</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="3" t="n">
         <f aca="false">AVERAGE(B35:B38)</f>
         <v>99.8557</v>
       </c>
+      <c r="G35" s="1" t="n">
+        <v>69.5777</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1152,7 +1319,11 @@
       <c r="C36" s="1" t="n">
         <v>745.053</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="1" t="n">
+        <v>108.302</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1164,7 +1335,11 @@
       <c r="C37" s="1" t="n">
         <v>791.615</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="G37" s="1" t="n">
+        <v>139.522</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -1176,7 +1351,11 @@
       <c r="C38" s="1" t="n">
         <v>749.636</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="G38" s="1" t="n">
+        <v>82.0211</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -1188,13 +1367,16 @@
       <c r="C39" s="1" t="n">
         <v>751.394</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="3" t="n">
         <f aca="false">AVERAGE(B39:B42)</f>
         <v>284.59975</v>
       </c>
+      <c r="G39" s="1" t="n">
+        <v>226.789</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -1206,8 +1388,11 @@
       <c r="C40" s="1" t="n">
         <v>771.981</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="1" t="n">
+        <v>278.206</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1219,8 +1404,11 @@
       <c r="C41" s="1" t="n">
         <v>747.132</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="1" t="n">
+        <v>397.489</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -1232,8 +1420,11 @@
       <c r="C42" s="1" t="n">
         <v>751.394</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="1" t="n">
+        <v>235.915</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1276,13 +1467,13 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="9" sqref="E2 E6 E10 E14 E18 E22 E26 E30 E34 E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1596,7 @@
       <c r="B10" s="1" t="n">
         <v>1.0991</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="4" t="n">
         <v>5.87708333333333</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -1824,13 +2015,13 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="9" sqref="E2 E6 E10 E14 E18 E22 E26 E30 E34 E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,12 +2564,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="9" sqref="E2 E6 E10 E14 E18 E22 E26 E30 E34 E38"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,24 +2919,24 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>3610.22</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="6" t="n">
         <v>275.22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="4" t="n">
+      <c r="A29" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>49.518</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="6" t="n">
         <v>250.276</v>
       </c>
     </row>

--- a/progetto/Risultati/cplex_results.xlsx
+++ b/progetto/Risultati/cplex_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Random" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="[H].MM.SS"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -79,11 +79,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,524 +167,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Random!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tempo medio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Random!$D$3:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Random!$E$3:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0.063475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.514275</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.94325</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.389725</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.98135</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>60.28625</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>109.9184</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>99.8557</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>284.59975</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="83543709"/>
-        <c:axId val="16637757"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="83543709"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="16637757"/>
-        <c:crossesAt val="0"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="16637757"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-          <c:min val="0.04"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" spc="-1">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83543709"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>924120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="9458280" y="482400"/>
-        <a:ext cx="5762880" cy="3242160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,13 +177,13 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +934,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1468,12 +945,12 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,7 +1074,7 @@
         <v>1.0991</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.87708333333333</v>
+        <v>141.03</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>30</v>
@@ -2021,7 +1498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,13 +2040,13 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.3367346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
